--- a/Air_Conditional_Screen/Project_Manegment/CI_List/CI List.xlsx
+++ b/Air_Conditional_Screen/Project_Manegment/CI_List/CI List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7ossam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Air_Conditional_Screen\Air_Conditional_Screen\Project_Manegment\CI_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Project Name:</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>RISK-Sheet.docx</t>
+  </si>
+  <si>
+    <t>CI List.xls</t>
   </si>
 </sst>
 </file>
@@ -276,28 +279,10 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,12 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,6 +305,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +613,7 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:F6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,114 +625,124 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G4" s="5"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="B6:B11"/>
@@ -737,16 +750,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
